--- a/data/armor.xlsx
+++ b/data/armor.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Repos/savagewasteland/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F148EAE3-F431-EA40-B87B-612DFF0B2A82}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34040" yWindow="8700" windowWidth="19000" windowHeight="15160" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="weapons.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -57,9 +63,6 @@
     <t>Armor</t>
   </si>
   <si>
-    <t>Bulletproof L2: Soaks one wound level from bullet damage, unless bullet AP +2 or more.</t>
-  </si>
-  <si>
     <t>Metal Armor</t>
   </si>
   <si>
@@ -67,12 +70,15 @@
   </si>
   <si>
     <t>Noisy: -1 to stealth checks.</t>
+  </si>
+  <si>
+    <t>Bulletproof L2: Soaks one wound level from bullet damage, unless bullet AP +2 or more.  (2x vs shotguns)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -173,6 +179,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -497,14 +511,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" style="3" customWidth="1"/>
@@ -513,7 +527,7 @@
     <col min="5" max="6" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -536,7 +550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -556,10 +570,10 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -579,12 +593,12 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>13</v>
       </c>
       <c r="B4" s="3">
         <v>4</v>
@@ -602,10 +616,10 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="5" customFormat="1">
+    <row r="5" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>

--- a/data/armor.xlsx
+++ b/data/armor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Repos/savagewasteland/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F148EAE3-F431-EA40-B87B-612DFF0B2A82}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42433BC-E2A7-B549-9957-6BDA6B4A3EAD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43920" yWindow="1360" windowWidth="33600" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="weapons.csv" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
     <t>Noisy: -1 to stealth checks.</t>
   </si>
   <si>
-    <t>Bulletproof L2: Soaks one wound level from bullet damage, unless bullet AP +2 or more.  (2x vs shotguns)</t>
+    <t>Resiliant L2: Soaks one wound level from ballistic or energy damage, unless weapon AP +2 or more.</t>
   </si>
 </sst>
 </file>
@@ -515,7 +515,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -555,7 +555,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3">
         <v>50</v>
@@ -578,7 +578,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3">
         <v>400</v>
@@ -601,7 +601,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3">
         <v>1100</v>

--- a/data/armor.xlsx
+++ b/data/armor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Repos/savagewasteland/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42433BC-E2A7-B549-9957-6BDA6B4A3EAD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04720BFB-48A4-024E-A983-FCCD43A4B320}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43920" yWindow="1360" windowWidth="33600" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14000" yWindow="4500" windowWidth="33600" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="weapons.csv" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Qty</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>Resiliant L2: Soaks one wound level from ballistic or energy damage, unless weapon AP +2 or more.</t>
+  </si>
+  <si>
+    <t>Combat Helmet</t>
+  </si>
+  <si>
+    <t>Metal Helmet</t>
+  </si>
+  <si>
+    <t>Condition</t>
   </si>
 </sst>
 </file>
@@ -512,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -524,10 +533,10 @@
     <col min="2" max="2" width="5.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="11" style="3" customWidth="1"/>
     <col min="4" max="4" width="9" style="3" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="3"/>
+    <col min="5" max="7" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -544,13 +553,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -566,14 +578,17 @@
       <c r="E2" s="3">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="3">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -581,7 +596,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="3">
-        <v>400</v>
+        <v>6500</v>
       </c>
       <c r="D3" s="3">
         <v>2</v>
@@ -589,42 +604,90 @@
       <c r="E3" s="3">
         <v>20</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="3">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3">
+        <v>800</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
         <v>1100</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D5" s="4">
         <v>4</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E5" s="3">
         <v>30</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F5" s="3">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+    <row r="6" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>200</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
